--- a/e_shape_linux/Output/Model_output/DNP_2020_2021_v2_Interdependency_analysis_VI.xlsx
+++ b/e_shape_linux/Output/Model_output/DNP_2020_2021_v2_Interdependency_analysis_VI.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9042437900866457</v>
+        <v>0.9042437918143302</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8987768441946649</v>
+        <v>0.8987768452115277</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8534240791137105</v>
+        <v>0.8534240787027046</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8533637239399202</v>
+        <v>0.8533637285397664</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.576421763077865</v>
+        <v>0.5764217642839503</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3576215074979235</v>
+        <v>0.3576215059854057</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3294102661137048</v>
+        <v>0.3294102647375682</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1890419411620003</v>
+        <v>0.1890419395881595</v>
       </c>
     </row>
   </sheetData>
